--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/10/Output_0_31.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/10/Output_0_31.xlsx
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>55380.69060571166</v>
+        <v>3879504.071595029</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>55380.69060571166</v>
+        <v>3879504.071595029</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1494094117.913486</v>
+        <v>56917539.45524814</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>13054.56149533054</v>
+        <v>1227892.61432428</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>26109.12299066109</v>
+        <v>2455785.228648559</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>39163.68448599162</v>
+        <v>3683677.84297284</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>54818.05907631641</v>
+        <v>4707888.194567147</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>69247.77407437698</v>
+        <v>5860926.168984144</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>83677.48907243503</v>
+        <v>7013964.143401311</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>98107.20407049078</v>
+        <v>8167002.117818835</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>112536.9190685466</v>
+        <v>9320040.092236359</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>128191.293658869</v>
+        <v>10344250.44383095</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>142621.0086569289</v>
+        <v>11497288.418248</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>157037.0857305116</v>
+        <v>12651407.55956618</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>171453.1628040992</v>
+        <v>13805526.70088416</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>185869.2398776869</v>
+        <v>14959645.84220215</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>200298.9548757411</v>
+        <v>16112683.81661985</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>217760.896162051</v>
+        <v>16905382.62694211</v>
       </c>
     </row>
   </sheetData>
@@ -27037,13 +27037,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E2" t="n">
         <v>133.0000000001242</v>
@@ -27058,7 +27058,7 @@
         <v>3.535106099327095e-10</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J2" t="n">
         <v>50.00000000000316</v>
@@ -27089,49 +27089,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="4">
@@ -27144,22 +27144,22 @@
         <v>1374</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
